--- a/1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
+++ b/1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B272C0-DA72-49B6-82AE-BD10E5025B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB121A02-E6A1-4F19-91BA-8CA8CD3814F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="237">
   <si>
     <t>Beschrijving</t>
   </si>
@@ -743,6 +743,12 @@
   </si>
   <si>
     <t xml:space="preserve">(Tijdelijk) In het manifest-ow mag maar voor 1 doel aangeleverd worden. </t>
+  </si>
+  <si>
+    <t>TPOD2170</t>
+  </si>
+  <si>
+    <t>Indien de normwaarde van het type 'waardeInRegeltekst' is, mag er maar één normwaarde voorkomen.</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92:W92"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9063,8 +9069,82 @@
       <c r="AA92" s="29"/>
       <c r="AB92" s="29"/>
     </row>
-    <row r="93" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="Y93" s="29"/>
+    <row r="93" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K93" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M93" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N93" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O93" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P93" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q93" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R93" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S93" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T93" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U93" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="V93" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W93" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X93" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y93" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="Z93" s="30"/>
       <c r="AA93" s="29"/>
       <c r="AB93" s="29"/>
@@ -9216,83 +9296,88 @@
   </sheetData>
   <autoFilter ref="A1:Y91" xr:uid="{9EE4866E-E834-4DB8-9ED6-70561D41353B}"/>
   <conditionalFormatting sqref="M63 O63 Q63 S63 U63 W63 Y63 B2:Y49 A2:A91">
-    <cfRule type="containsText" dxfId="16" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N63">
-    <cfRule type="containsText" dxfId="15" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63">
-    <cfRule type="containsText" dxfId="14" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:K64">
-    <cfRule type="containsText" dxfId="13" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Y1">
-    <cfRule type="containsText" dxfId="12" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R63">
-    <cfRule type="containsText" dxfId="11" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T63">
-    <cfRule type="containsText" dxfId="10" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V63">
-    <cfRule type="containsText" dxfId="9" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",V63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X63">
-    <cfRule type="containsText" dxfId="8" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",X63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="containsText" dxfId="7" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="containsText" dxfId="6" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="containsText" dxfId="5" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="4" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z49">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z64">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Z64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A92)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
+++ b/1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB121A02-E6A1-4F19-91BA-8CA8CD3814F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F88C78-3702-437F-A358-3179B2C028A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="239">
   <si>
     <t>Beschrijving</t>
   </si>
@@ -749,13 +749,19 @@
   </si>
   <si>
     <t>Indien de normwaarde van het type 'waardeInRegeltekst' is, mag er maar één normwaarde voorkomen.</t>
+  </si>
+  <si>
+    <t>TPOD2180</t>
+  </si>
+  <si>
+    <t>Per Regeling moet er een Regelingsgebied zijn aangeleverd.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -802,6 +808,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1024,11 +1048,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,10 +1152,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{D101CD80-1AD3-420D-BF6F-E7982F1FE2DE}"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{DD73F50D-CE68-4CBD-BD67-3376699AD112}"/>
+    <cellStyle name="Standaard 3" xfId="3" xr:uid="{C5095CC6-E89F-4BD7-837D-4477A4D268A5}"/>
+    <cellStyle name="Standaard 3 2" xfId="4" xr:uid="{3336DED5-B670-47A9-81F8-E0384FA2DDCF}"/>
+    <cellStyle name="Standaard 4" xfId="2" xr:uid="{09E6B307-1DDA-4AD9-8A57-F14FEA913823}"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -9150,7 +9209,81 @@
       <c r="AB93" s="29"/>
     </row>
     <row r="94" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="Y94" s="29"/>
+      <c r="A94" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C94" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="D94" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F94" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G94" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I94" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="J94" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="K94" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="L94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="M94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="N94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="O94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="R94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="S94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="T94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="U94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="V94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="W94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="X94" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y94" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="Z94" s="30"/>
       <c r="AA94" s="29"/>
       <c r="AB94" s="29"/>

--- a/1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
+++ b/1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F88C78-3702-437F-A358-3179B2C028A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33266E60-30C7-40B3-A471-93B8EB055580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="1812" yWindow="1332" windowWidth="18552" windowHeight="11028" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TPOD-werkversieBert" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="243">
   <si>
     <t>Beschrijving</t>
   </si>
@@ -755,6 +755,18 @@
   </si>
   <si>
     <t>Per Regeling moet er een Regelingsgebied zijn aangeleverd.</t>
+  </si>
+  <si>
+    <t>TPOD2190</t>
+  </si>
+  <si>
+    <t>In het manifest-OW mag het objecttype Geometrie niet voorkomen.</t>
+  </si>
+  <si>
+    <t>In het manifest-OW mag een bestandsnaam niet eindigen op '.gml'</t>
+  </si>
+  <si>
+    <t>TPOD2200</t>
   </si>
 </sst>
 </file>
@@ -1669,11 +1681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796636CA-F9C3-46BC-98AE-E8485AAD557E}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9289,13 +9301,161 @@
       <c r="AB94" s="29"/>
     </row>
     <row r="95" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="Y95" s="29"/>
+      <c r="A95" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F95" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I95" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="J95" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="K95" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="L95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="M95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="N95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="O95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="R95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="S95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="T95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="U95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="V95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="W95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="X95" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y95" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="Z95" s="30"/>
       <c r="AA95" s="29"/>
       <c r="AB95" s="29"/>
     </row>
     <row r="96" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="Y96" s="29"/>
+      <c r="A96" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D96" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F96" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H96" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I96" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="J96" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="K96" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="L96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="M96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="N96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="O96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="R96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="S96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="T96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="U96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="V96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="W96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="X96" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y96" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="Z96" s="30"/>
       <c r="AA96" s="29"/>
       <c r="AB96" s="29"/>
@@ -9408,9 +9568,9 @@
       <c r="AA114" s="29"/>
       <c r="AB114" s="29"/>
     </row>
-    <row r="115" spans="25:28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y115" s="29"/>
-      <c r="Z115" s="30"/>
+      <c r="Z115" s="29"/>
       <c r="AA115" s="29"/>
       <c r="AB115" s="29"/>
     </row>
@@ -9419,12 +9579,6 @@
       <c r="Z116" s="29"/>
       <c r="AA116" s="29"/>
       <c r="AB116" s="29"/>
-    </row>
-    <row r="117" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y117" s="29"/>
-      <c r="Z117" s="29"/>
-      <c r="AA117" s="29"/>
-      <c r="AB117" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y91" xr:uid="{9EE4866E-E834-4DB8-9ED6-70561D41353B}"/>

--- a/1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
+++ b/1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33266E60-30C7-40B3-A471-93B8EB055580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB31FBA-ACF1-4CA5-8F70-CECD29B65BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1332" windowWidth="18552" windowHeight="11028" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TPOD-werkversieBert" sheetId="12" r:id="rId1"/>
@@ -1161,9 +1161,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1190,6 +1187,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1684,8 +1684,8 @@
   <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9069,7 +9069,7 @@
       <c r="A92" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="26" t="s">
         <v>233</v>
       </c>
       <c r="C92" s="24" t="s">
@@ -9144,7 +9144,7 @@
       <c r="A93" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C93" s="24" t="s">
@@ -9221,79 +9221,79 @@
       <c r="AB93" s="29"/>
     </row>
     <row r="94" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
+      <c r="A94" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="D94" s="40" t="s">
+      <c r="D94" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E94" s="35" t="s">
+      <c r="E94" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F94" s="35" t="s">
+      <c r="F94" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="G94" s="36" t="s">
+      <c r="G94" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H94" s="36" t="s">
+      <c r="H94" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="I94" s="36" t="s">
+      <c r="I94" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="J94" s="42" t="s">
+      <c r="J94" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="K94" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="L94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="M94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="N94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="O94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="P94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="R94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="S94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="T94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="U94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="V94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="W94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="X94" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y94" s="39" t="s">
+      <c r="K94" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="L94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="M94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="P94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="R94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="S94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="T94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="U94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="V94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="W94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="X94" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y94" s="38" t="s">
         <v>81</v>
       </c>
       <c r="Z94" s="30"/>
@@ -9301,79 +9301,79 @@
       <c r="AB94" s="29"/>
     </row>
     <row r="95" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="D95" s="40" t="s">
+      <c r="D95" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E95" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F95" s="35" t="s">
+      <c r="F95" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="G95" s="36" t="s">
+      <c r="G95" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H95" s="36" t="s">
+      <c r="H95" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="I95" s="36" t="s">
+      <c r="I95" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="J95" s="42" t="s">
+      <c r="J95" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="K95" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="L95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="M95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="N95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="O95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="P95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="R95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="S95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="T95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="U95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="V95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="W95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="X95" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y95" s="39" t="s">
+      <c r="K95" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="L95" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="M95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="P95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="R95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="S95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="T95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="U95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="V95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="W95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="X95" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y95" s="38" t="s">
         <v>81</v>
       </c>
       <c r="Z95" s="30"/>
@@ -9381,79 +9381,79 @@
       <c r="AB95" s="29"/>
     </row>
     <row r="96" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="43" t="s">
+      <c r="A96" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="D96" s="40" t="s">
+      <c r="D96" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F96" s="35" t="s">
+      <c r="F96" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="G96" s="36" t="s">
+      <c r="G96" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H96" s="36" t="s">
+      <c r="H96" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="I96" s="36" t="s">
+      <c r="I96" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="J96" s="42" t="s">
+      <c r="J96" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="K96" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="L96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="M96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="N96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="O96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="P96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="R96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="S96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="T96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="U96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="V96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="W96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="X96" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y96" s="39" t="s">
+      <c r="K96" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="L96" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="M96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="P96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="R96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="S96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="T96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="U96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="V96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="W96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="X96" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y96" s="38" t="s">
         <v>81</v>
       </c>
       <c r="Z96" s="30"/>

--- a/1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
+++ b/1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0_ow-1.0.1_op-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB31FBA-ACF1-4CA5-8F70-CECD29B65BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3C8E6F-D184-49B8-B2F8-8CBC87105911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TPOD-werkversieBert" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TPOD-werkversieBert'!$A$1:$Y$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TPOD-werkversieBert'!$A$1:$Y$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="239">
   <si>
     <t>Beschrijving</t>
   </si>
@@ -511,18 +511,6 @@
   </si>
   <si>
     <t>het wId van de Regeltekst in OW moet verwijzen naar een bestaande wId van een Artikel of Lid in OP</t>
-  </si>
-  <si>
-    <t>het FRBRWork van het manifest in OW moet verwijzen naar een bestaand FRBRWork van een Regelingversie in OP</t>
-  </si>
-  <si>
-    <t>het FRBRExpression van het manifest in OW moet verwijzen naar een bestaand FRBRWork van een Regelingversie in OP</t>
-  </si>
-  <si>
-    <t>TPOD2020</t>
-  </si>
-  <si>
-    <t>TPOD2030</t>
   </si>
   <si>
     <t>TPOD2040</t>
@@ -872,7 +860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1020,17 +1008,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1068,7 +1045,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,13 +1129,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1681,11 +1655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796636CA-F9C3-46BC-98AE-E8485AAD557E}">
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1703,10 +1677,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -1730,58 +1704,58 @@
         <v>5</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="Y1" s="31" t="s">
         <v>189</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y1" s="32" t="s">
-        <v>193</v>
       </c>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>139</v>
@@ -1793,22 +1767,22 @@
         <v>77</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>155</v>
@@ -1844,16 +1818,16 @@
         <v>81</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W2" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="Y2" s="32" t="s">
+        <v>194</v>
       </c>
       <c r="Z2" s="11" t="s">
         <v>139</v>
@@ -1862,7 +1836,7 @@
     </row>
     <row r="3" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>107</v>
@@ -1874,7 +1848,7 @@
         <v>73</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>76</v>
@@ -1886,10 +1860,10 @@
         <v>82</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>155</v>
@@ -1925,16 +1899,16 @@
         <v>81</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W3" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y3" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z3" s="11" t="s">
         <v>107</v>
@@ -1943,7 +1917,7 @@
     </row>
     <row r="4" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>131</v>
@@ -1955,22 +1929,22 @@
         <v>77</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>155</v>
@@ -2006,16 +1980,16 @@
         <v>81</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W4" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z4" s="11" t="s">
         <v>131</v>
@@ -2024,7 +1998,7 @@
     </row>
     <row r="5" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>105</v>
@@ -2036,7 +2010,7 @@
         <v>73</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>76</v>
@@ -2048,10 +2022,10 @@
         <v>82</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>155</v>
@@ -2087,16 +2061,16 @@
         <v>81</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X5" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z5" s="11" t="s">
         <v>105</v>
@@ -2105,7 +2079,7 @@
     </row>
     <row r="6" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>106</v>
@@ -2117,7 +2091,7 @@
         <v>73</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>76</v>
@@ -2129,10 +2103,10 @@
         <v>82</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>155</v>
@@ -2168,16 +2142,16 @@
         <v>81</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W6" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X6" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z6" s="11" t="s">
         <v>106</v>
@@ -2186,7 +2160,7 @@
     </row>
     <row r="7" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>108</v>
@@ -2198,7 +2172,7 @@
         <v>73</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>76</v>
@@ -2210,10 +2184,10 @@
         <v>82</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>155</v>
@@ -2249,16 +2223,16 @@
         <v>81</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W7" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X7" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z7" s="11" t="s">
         <v>108</v>
@@ -2267,7 +2241,7 @@
     </row>
     <row r="8" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>140</v>
@@ -2279,22 +2253,22 @@
         <v>77</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>155</v>
@@ -2330,16 +2304,16 @@
         <v>81</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W8" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z8" s="11" t="s">
         <v>140</v>
@@ -2348,7 +2322,7 @@
     </row>
     <row r="9" spans="1:27" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>109</v>
@@ -2360,7 +2334,7 @@
         <v>73</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>76</v>
@@ -2372,10 +2346,10 @@
         <v>82</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>155</v>
@@ -2411,16 +2385,16 @@
         <v>81</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X9" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z9" s="11" t="s">
         <v>109</v>
@@ -2429,7 +2403,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>110</v>
@@ -2441,7 +2415,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>76</v>
@@ -2453,10 +2427,10 @@
         <v>82</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>155</v>
@@ -2492,16 +2466,16 @@
         <v>81</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W10" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z10" s="11" t="s">
         <v>110</v>
@@ -2510,7 +2484,7 @@
     </row>
     <row r="11" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>111</v>
@@ -2522,7 +2496,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>76</v>
@@ -2534,10 +2508,10 @@
         <v>82</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>155</v>
@@ -2573,16 +2547,16 @@
         <v>81</v>
       </c>
       <c r="V11" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W11" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X11" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z11" s="11" t="s">
         <v>111</v>
@@ -2591,7 +2565,7 @@
     </row>
     <row r="12" spans="1:27" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>112</v>
@@ -2603,7 +2577,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>76</v>
@@ -2615,10 +2589,10 @@
         <v>82</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>155</v>
@@ -2654,16 +2628,16 @@
         <v>81</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W12" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z12" s="11" t="s">
         <v>112</v>
@@ -2672,7 +2646,7 @@
     </row>
     <row r="13" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>132</v>
@@ -2684,22 +2658,22 @@
         <v>77</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>155</v>
@@ -2735,16 +2709,16 @@
         <v>81</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W13" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z13" s="11" t="s">
         <v>132</v>
@@ -2753,7 +2727,7 @@
     </row>
     <row r="14" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>113</v>
@@ -2765,7 +2739,7 @@
         <v>73</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>76</v>
@@ -2777,10 +2751,10 @@
         <v>82</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>155</v>
@@ -2816,16 +2790,16 @@
         <v>81</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W14" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z14" s="11" t="s">
         <v>113</v>
@@ -2834,7 +2808,7 @@
     </row>
     <row r="15" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>114</v>
@@ -2846,7 +2820,7 @@
         <v>73</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>76</v>
@@ -2858,10 +2832,10 @@
         <v>82</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>155</v>
@@ -2897,16 +2871,16 @@
         <v>81</v>
       </c>
       <c r="V15" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W15" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>114</v>
@@ -2915,7 +2889,7 @@
     </row>
     <row r="16" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>115</v>
@@ -2927,7 +2901,7 @@
         <v>73</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>76</v>
@@ -2939,10 +2913,10 @@
         <v>82</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>155</v>
@@ -2978,16 +2952,16 @@
         <v>81</v>
       </c>
       <c r="V16" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W16" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z16" s="11" t="s">
         <v>115</v>
@@ -2996,7 +2970,7 @@
     </row>
     <row r="17" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>133</v>
@@ -3008,22 +2982,22 @@
         <v>77</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>155</v>
@@ -3059,16 +3033,16 @@
         <v>81</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W17" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>133</v>
@@ -3077,7 +3051,7 @@
     </row>
     <row r="18" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>134</v>
@@ -3089,22 +3063,22 @@
         <v>77</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>155</v>
@@ -3140,16 +3114,16 @@
         <v>81</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W18" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z18" s="11" t="s">
         <v>134</v>
@@ -3158,7 +3132,7 @@
     </row>
     <row r="19" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>116</v>
@@ -3170,7 +3144,7 @@
         <v>73</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>76</v>
@@ -3182,10 +3156,10 @@
         <v>82</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>155</v>
@@ -3221,16 +3195,16 @@
         <v>81</v>
       </c>
       <c r="V19" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W19" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X19" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z19" s="11" t="s">
         <v>116</v>
@@ -3239,7 +3213,7 @@
     </row>
     <row r="20" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>117</v>
@@ -3251,7 +3225,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>76</v>
@@ -3263,10 +3237,10 @@
         <v>82</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>155</v>
@@ -3302,16 +3276,16 @@
         <v>81</v>
       </c>
       <c r="V20" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W20" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X20" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y20" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z20" s="11" t="s">
         <v>117</v>
@@ -3320,7 +3294,7 @@
     </row>
     <row r="21" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>135</v>
@@ -3332,22 +3306,22 @@
         <v>77</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>155</v>
@@ -3383,16 +3357,16 @@
         <v>81</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W21" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y21" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z21" s="11" t="s">
         <v>135</v>
@@ -3401,7 +3375,7 @@
     </row>
     <row r="22" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>136</v>
@@ -3413,22 +3387,22 @@
         <v>77</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>155</v>
@@ -3464,16 +3438,16 @@
         <v>81</v>
       </c>
       <c r="V22" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W22" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y22" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z22" s="11" t="s">
         <v>136</v>
@@ -3482,7 +3456,7 @@
     </row>
     <row r="23" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>118</v>
@@ -3494,7 +3468,7 @@
         <v>73</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>76</v>
@@ -3506,10 +3480,10 @@
         <v>82</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>155</v>
@@ -3545,16 +3519,16 @@
         <v>81</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W23" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X23" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z23" s="11" t="s">
         <v>118</v>
@@ -3563,7 +3537,7 @@
     </row>
     <row r="24" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>119</v>
@@ -3575,7 +3549,7 @@
         <v>73</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>76</v>
@@ -3587,10 +3561,10 @@
         <v>82</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>155</v>
@@ -3626,16 +3600,16 @@
         <v>81</v>
       </c>
       <c r="V24" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W24" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X24" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>119</v>
@@ -3644,7 +3618,7 @@
     </row>
     <row r="25" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>137</v>
@@ -3656,22 +3630,22 @@
         <v>77</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>155</v>
@@ -3707,16 +3681,16 @@
         <v>81</v>
       </c>
       <c r="V25" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W25" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X25" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y25" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z25" s="11" t="s">
         <v>137</v>
@@ -3725,7 +3699,7 @@
     </row>
     <row r="26" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>138</v>
@@ -3737,22 +3711,22 @@
         <v>77</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>155</v>
@@ -3788,16 +3762,16 @@
         <v>81</v>
       </c>
       <c r="V26" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W26" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X26" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y26" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z26" s="11" t="s">
         <v>138</v>
@@ -3806,7 +3780,7 @@
     </row>
     <row r="27" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>120</v>
@@ -3818,7 +3792,7 @@
         <v>73</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>76</v>
@@ -3830,10 +3804,10 @@
         <v>82</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>155</v>
@@ -3869,16 +3843,16 @@
         <v>81</v>
       </c>
       <c r="V27" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W27" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X27" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y27" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z27" s="11" t="s">
         <v>120</v>
@@ -3887,7 +3861,7 @@
     </row>
     <row r="28" spans="1:27" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>121</v>
@@ -3899,7 +3873,7 @@
         <v>73</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>76</v>
@@ -3911,10 +3885,10 @@
         <v>82</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>155</v>
@@ -3950,16 +3924,16 @@
         <v>155</v>
       </c>
       <c r="V28" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W28" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X28" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y28" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z28" s="11" t="s">
         <v>121</v>
@@ -3968,7 +3942,7 @@
     </row>
     <row r="29" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>122</v>
@@ -3980,7 +3954,7 @@
         <v>73</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>76</v>
@@ -3992,10 +3966,10 @@
         <v>82</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>155</v>
@@ -4031,16 +4005,16 @@
         <v>81</v>
       </c>
       <c r="V29" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W29" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X29" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y29" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z29" s="11" t="s">
         <v>122</v>
@@ -4049,7 +4023,7 @@
     </row>
     <row r="30" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>123</v>
@@ -4061,7 +4035,7 @@
         <v>73</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>76</v>
@@ -4073,10 +4047,10 @@
         <v>82</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>155</v>
@@ -4112,16 +4086,16 @@
         <v>81</v>
       </c>
       <c r="V30" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W30" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X30" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y30" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z30" s="11" t="s">
         <v>123</v>
@@ -4130,7 +4104,7 @@
     </row>
     <row r="31" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>141</v>
@@ -4142,22 +4116,22 @@
         <v>77</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>155</v>
@@ -4193,16 +4167,16 @@
         <v>155</v>
       </c>
       <c r="V31" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W31" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X31" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y31" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z31" s="11" t="s">
         <v>141</v>
@@ -4211,7 +4185,7 @@
     </row>
     <row r="32" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>124</v>
@@ -4223,7 +4197,7 @@
         <v>73</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>76</v>
@@ -4235,10 +4209,10 @@
         <v>82</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>155</v>
@@ -4274,16 +4248,16 @@
         <v>81</v>
       </c>
       <c r="V32" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W32" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X32" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y32" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z32" s="11" t="s">
         <v>124</v>
@@ -4292,7 +4266,7 @@
     </row>
     <row r="33" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>125</v>
@@ -4304,7 +4278,7 @@
         <v>73</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>76</v>
@@ -4316,10 +4290,10 @@
         <v>82</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>155</v>
@@ -4355,16 +4329,16 @@
         <v>81</v>
       </c>
       <c r="V33" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W33" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X33" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y33" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z33" s="11" t="s">
         <v>125</v>
@@ -4373,34 +4347,34 @@
     </row>
     <row r="34" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>155</v>
@@ -4436,16 +4410,16 @@
         <v>81</v>
       </c>
       <c r="V34" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W34" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X34" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y34" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z34" s="11" t="s">
         <v>142</v>
@@ -4454,7 +4428,7 @@
     </row>
     <row r="35" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>126</v>
@@ -4466,7 +4440,7 @@
         <v>73</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>76</v>
@@ -4478,10 +4452,10 @@
         <v>82</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>155</v>
@@ -4517,16 +4491,16 @@
         <v>81</v>
       </c>
       <c r="V35" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W35" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X35" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y35" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z35" s="11" t="s">
         <v>126</v>
@@ -4535,7 +4509,7 @@
     </row>
     <row r="36" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>127</v>
@@ -4547,7 +4521,7 @@
         <v>73</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>76</v>
@@ -4559,10 +4533,10 @@
         <v>82</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>155</v>
@@ -4598,16 +4572,16 @@
         <v>81</v>
       </c>
       <c r="V36" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W36" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X36" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y36" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z36" s="11" t="s">
         <v>127</v>
@@ -4616,7 +4590,7 @@
     </row>
     <row r="37" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>143</v>
@@ -4628,22 +4602,22 @@
         <v>77</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>155</v>
@@ -4679,16 +4653,16 @@
         <v>155</v>
       </c>
       <c r="V37" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W37" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X37" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y37" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z37" s="11" t="s">
         <v>143</v>
@@ -4697,7 +4671,7 @@
     </row>
     <row r="38" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>128</v>
@@ -4709,7 +4683,7 @@
         <v>73</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>76</v>
@@ -4721,10 +4695,10 @@
         <v>82</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>155</v>
@@ -4760,16 +4734,16 @@
         <v>81</v>
       </c>
       <c r="V38" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W38" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X38" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y38" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z38" s="11" t="s">
         <v>128</v>
@@ -4778,7 +4752,7 @@
     </row>
     <row r="39" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>144</v>
@@ -4790,22 +4764,22 @@
         <v>77</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>155</v>
@@ -4841,16 +4815,16 @@
         <v>155</v>
       </c>
       <c r="V39" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W39" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X39" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y39" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z39" s="11" t="s">
         <v>144</v>
@@ -4859,7 +4833,7 @@
     </row>
     <row r="40" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>129</v>
@@ -4871,7 +4845,7 @@
         <v>73</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>76</v>
@@ -4883,10 +4857,10 @@
         <v>82</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>155</v>
@@ -4922,16 +4896,16 @@
         <v>81</v>
       </c>
       <c r="V40" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W40" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X40" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y40" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z40" s="11" t="s">
         <v>129</v>
@@ -4940,7 +4914,7 @@
     </row>
     <row r="41" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>145</v>
@@ -4952,22 +4926,22 @@
         <v>77</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>155</v>
@@ -5003,16 +4977,16 @@
         <v>155</v>
       </c>
       <c r="V41" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W41" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X41" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y41" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z41" s="11" t="s">
         <v>145</v>
@@ -5021,19 +4995,19 @@
     </row>
     <row r="42" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>76</v>
@@ -5045,10 +5019,10 @@
         <v>82</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K42" s="15" t="s">
         <v>155</v>
@@ -5084,16 +5058,16 @@
         <v>81</v>
       </c>
       <c r="V42" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W42" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X42" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y42" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z42" s="11" t="s">
         <v>130</v>
@@ -5102,7 +5076,7 @@
     </row>
     <row r="43" spans="1:27" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>103</v>
@@ -5114,7 +5088,7 @@
         <v>73</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>92</v>
@@ -5126,10 +5100,10 @@
         <v>82</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>155</v>
@@ -5183,7 +5157,7 @@
     </row>
     <row r="44" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>104</v>
@@ -5195,7 +5169,7 @@
         <v>73</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>92</v>
@@ -5207,10 +5181,10 @@
         <v>82</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K44" s="15" t="s">
         <v>155</v>
@@ -5264,34 +5238,34 @@
     </row>
     <row r="45" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K45" s="15" t="s">
         <v>155</v>
@@ -5327,16 +5301,16 @@
         <v>81</v>
       </c>
       <c r="V45" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W45" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X45" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y45" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z45" s="11" t="s">
         <v>146</v>
@@ -5345,7 +5319,7 @@
     </row>
     <row r="46" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>64</v>
@@ -5357,22 +5331,22 @@
         <v>77</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K46" s="15" t="s">
         <v>155</v>
@@ -5408,16 +5382,16 @@
         <v>81</v>
       </c>
       <c r="V46" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W46" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X46" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y46" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z46" s="11" t="s">
         <v>64</v>
@@ -5426,7 +5400,7 @@
     </row>
     <row r="47" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>66</v>
@@ -5438,22 +5412,22 @@
         <v>77</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K47" s="15" t="s">
         <v>155</v>
@@ -5489,16 +5463,16 @@
         <v>81</v>
       </c>
       <c r="V47" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W47" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X47" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y47" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z47" s="11" t="s">
         <v>66</v>
@@ -5507,34 +5481,34 @@
     </row>
     <row r="48" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K48" s="15" t="s">
         <v>155</v>
@@ -5570,16 +5544,16 @@
         <v>81</v>
       </c>
       <c r="V48" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W48" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X48" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y48" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z48" s="11" t="s">
         <v>68</v>
@@ -5588,34 +5562,34 @@
     </row>
     <row r="49" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K49" s="15" t="s">
         <v>155</v>
@@ -5651,16 +5625,16 @@
         <v>81</v>
       </c>
       <c r="V49" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W49" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X49" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y49" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z49" s="11" t="s">
         <v>69</v>
@@ -5669,34 +5643,34 @@
     </row>
     <row r="50" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F50" s="20" t="s">
         <v>75</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>155</v>
@@ -5750,19 +5724,19 @@
     </row>
     <row r="51" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>75</v>
@@ -5774,10 +5748,10 @@
         <v>82</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K51" s="15" t="s">
         <v>155</v>
@@ -5813,16 +5787,16 @@
         <v>81</v>
       </c>
       <c r="V51" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W51" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X51" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y51" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z51" s="11" t="s">
         <v>12</v>
@@ -5831,7 +5805,7 @@
     </row>
     <row r="52" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>10</v>
@@ -5843,7 +5817,7 @@
         <v>73</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>75</v>
@@ -5855,10 +5829,10 @@
         <v>82</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K52" s="15" t="s">
         <v>155</v>
@@ -5894,16 +5868,16 @@
         <v>81</v>
       </c>
       <c r="V52" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W52" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X52" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y52" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z52" s="11" t="s">
         <v>10</v>
@@ -5912,7 +5886,7 @@
     </row>
     <row r="53" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>8</v>
@@ -5924,7 +5898,7 @@
         <v>73</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>75</v>
@@ -5936,10 +5910,10 @@
         <v>82</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K53" s="15" t="s">
         <v>155</v>
@@ -5975,16 +5949,16 @@
         <v>81</v>
       </c>
       <c r="V53" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W53" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X53" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y53" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z53" s="11" t="s">
         <v>8</v>
@@ -5993,7 +5967,7 @@
     </row>
     <row r="54" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>13</v>
@@ -6005,7 +5979,7 @@
         <v>73</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>75</v>
@@ -6017,10 +5991,10 @@
         <v>82</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K54" s="15" t="s">
         <v>155</v>
@@ -6056,16 +6030,16 @@
         <v>81</v>
       </c>
       <c r="V54" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W54" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X54" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y54" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z54" s="11" t="s">
         <v>13</v>
@@ -6074,7 +6048,7 @@
     </row>
     <row r="55" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>15</v>
@@ -6086,7 +6060,7 @@
         <v>73</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>75</v>
@@ -6098,10 +6072,10 @@
         <v>82</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K55" s="15" t="s">
         <v>155</v>
@@ -6137,16 +6111,16 @@
         <v>81</v>
       </c>
       <c r="V55" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W55" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X55" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y55" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z55" s="11" t="s">
         <v>15</v>
@@ -6155,7 +6129,7 @@
     </row>
     <row r="56" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>17</v>
@@ -6167,7 +6141,7 @@
         <v>73</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>75</v>
@@ -6179,10 +6153,10 @@
         <v>82</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K56" s="15" t="s">
         <v>155</v>
@@ -6218,16 +6192,16 @@
         <v>81</v>
       </c>
       <c r="V56" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W56" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X56" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y56" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z56" s="23" t="s">
         <v>17</v>
@@ -6236,7 +6210,7 @@
     </row>
     <row r="57" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>19</v>
@@ -6248,7 +6222,7 @@
         <v>73</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>75</v>
@@ -6260,10 +6234,10 @@
         <v>82</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>155</v>
@@ -6299,16 +6273,16 @@
         <v>81</v>
       </c>
       <c r="V57" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W57" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X57" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y57" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z57" s="23" t="s">
         <v>19</v>
@@ -6317,7 +6291,7 @@
     </row>
     <row r="58" spans="1:27" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>21</v>
@@ -6329,7 +6303,7 @@
         <v>73</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>75</v>
@@ -6341,10 +6315,10 @@
         <v>82</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K58" s="15" t="s">
         <v>155</v>
@@ -6398,7 +6372,7 @@
     </row>
     <row r="59" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>27</v>
@@ -6410,7 +6384,7 @@
         <v>73</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F59" s="20" t="s">
         <v>75</v>
@@ -6422,10 +6396,10 @@
         <v>82</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K59" s="15" t="s">
         <v>155</v>
@@ -6461,16 +6435,16 @@
         <v>81</v>
       </c>
       <c r="V59" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W59" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X59" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y59" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z59" s="11" t="s">
         <v>27</v>
@@ -6479,19 +6453,19 @@
     </row>
     <row r="60" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F60" s="20" t="s">
         <v>75</v>
@@ -6503,10 +6477,10 @@
         <v>82</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K60" s="15" t="s">
         <v>155</v>
@@ -6542,16 +6516,16 @@
         <v>81</v>
       </c>
       <c r="V60" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W60" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X60" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y60" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z60" s="11" t="s">
         <v>22</v>
@@ -6560,7 +6534,7 @@
     </row>
     <row r="61" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
@@ -6572,7 +6546,7 @@
         <v>73</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F61" s="20" t="s">
         <v>75</v>
@@ -6584,10 +6558,10 @@
         <v>82</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K61" s="15" t="s">
         <v>155</v>
@@ -6641,7 +6615,7 @@
     </row>
     <row r="62" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>25</v>
@@ -6653,7 +6627,7 @@
         <v>73</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>75</v>
@@ -6665,10 +6639,10 @@
         <v>82</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K62" s="15" t="s">
         <v>155</v>
@@ -6722,7 +6696,7 @@
     </row>
     <row r="63" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>71</v>
@@ -6734,7 +6708,7 @@
         <v>73</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F63" s="22" t="s">
         <v>75</v>
@@ -6746,10 +6720,10 @@
         <v>82</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K63" s="15" t="s">
         <v>155</v>
@@ -6785,16 +6759,16 @@
         <v>81</v>
       </c>
       <c r="V63" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W63" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X63" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y63" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z63" s="11" t="s">
         <v>71</v>
@@ -6803,7 +6777,7 @@
     </row>
     <row r="64" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>78</v>
@@ -6815,7 +6789,7 @@
         <v>73</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F64" s="21" t="s">
         <v>75</v>
@@ -6827,10 +6801,10 @@
         <v>82</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K64" s="15" t="s">
         <v>155</v>
@@ -6884,7 +6858,7 @@
     </row>
     <row r="65" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>79</v>
@@ -6896,10 +6870,10 @@
         <v>73</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>74</v>
@@ -6908,10 +6882,10 @@
         <v>82</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K65" s="15" t="s">
         <v>155</v>
@@ -6965,22 +6939,22 @@
     </row>
     <row r="66" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>74</v>
@@ -6989,10 +6963,10 @@
         <v>82</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K66" s="15" t="s">
         <v>155</v>
@@ -7046,7 +7020,7 @@
     </row>
     <row r="67" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>86</v>
@@ -7058,7 +7032,7 @@
         <v>73</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>75</v>
@@ -7070,10 +7044,10 @@
         <v>82</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>155</v>
@@ -7127,7 +7101,7 @@
     </row>
     <row r="68" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>98</v>
@@ -7139,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>75</v>
@@ -7151,10 +7125,10 @@
         <v>82</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K68" s="15" t="s">
         <v>155</v>
@@ -7208,7 +7182,7 @@
     </row>
     <row r="69" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>99</v>
@@ -7220,10 +7194,10 @@
         <v>73</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>74</v>
@@ -7232,10 +7206,10 @@
         <v>82</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>155</v>
@@ -7289,7 +7263,7 @@
     </row>
     <row r="70" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>100</v>
@@ -7301,10 +7275,10 @@
         <v>73</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>74</v>
@@ -7313,10 +7287,10 @@
         <v>82</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K70" s="15" t="s">
         <v>155</v>
@@ -7370,7 +7344,7 @@
     </row>
     <row r="71" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>101</v>
@@ -7382,10 +7356,10 @@
         <v>73</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>74</v>
@@ -7394,10 +7368,10 @@
         <v>82</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K71" s="15" t="s">
         <v>155</v>
@@ -7451,7 +7425,7 @@
     </row>
     <row r="72" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>102</v>
@@ -7463,10 +7437,10 @@
         <v>73</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>74</v>
@@ -7475,10 +7449,10 @@
         <v>82</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K72" s="15" t="s">
         <v>155</v>
@@ -7532,7 +7506,7 @@
     </row>
     <row r="73" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>147</v>
@@ -7544,10 +7518,10 @@
         <v>73</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>74</v>
@@ -7556,10 +7530,10 @@
         <v>82</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K73" s="15" t="s">
         <v>155</v>
@@ -7613,7 +7587,7 @@
     </row>
     <row r="74" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>149</v>
@@ -7625,10 +7599,10 @@
         <v>73</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>74</v>
@@ -7637,10 +7611,10 @@
         <v>82</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K74" s="15" t="s">
         <v>155</v>
@@ -7694,7 +7668,7 @@
     </row>
     <row r="75" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>151</v>
@@ -7706,10 +7680,10 @@
         <v>73</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>74</v>
@@ -7718,10 +7692,10 @@
         <v>82</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K75" s="15" t="s">
         <v>155</v>
@@ -7775,7 +7749,7 @@
     </row>
     <row r="76" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>153</v>
@@ -7787,7 +7761,7 @@
         <v>73</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>75</v>
@@ -7799,10 +7773,10 @@
         <v>82</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K76" s="15" t="s">
         <v>155</v>
@@ -7856,10 +7830,10 @@
     </row>
     <row r="77" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C77" s="24" t="s">
         <v>157</v>
@@ -7868,10 +7842,10 @@
         <v>73</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>74</v>
@@ -7880,78 +7854,78 @@
         <v>82</v>
       </c>
       <c r="I77" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M77" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N77" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O77" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P77" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q77" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R77" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S77" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T77" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U77" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="V77" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W77" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X77" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y77" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z77" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA77" s="29"/>
+    </row>
+    <row r="78" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J77" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L77" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M77" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N77" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O77" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P77" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q77" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R77" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S77" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T77" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U77" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V77" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W77" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X77" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y77" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z77" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA77" s="29"/>
-    </row>
-    <row r="78" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>160</v>
+      <c r="B78" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F78" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" s="12" t="s">
         <v>227</v>
       </c>
       <c r="G78" s="13" t="s">
@@ -7961,10 +7935,10 @@
         <v>82</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K78" s="15" t="s">
         <v>155</v>
@@ -8012,28 +7986,28 @@
         <v>81</v>
       </c>
       <c r="Z78" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AA78" s="29"/>
     </row>
-    <row r="79" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>161</v>
+        <v>202</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F79" s="31" t="s">
-        <v>227</v>
+        <v>191</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>74</v>
@@ -8042,79 +8016,79 @@
         <v>82</v>
       </c>
       <c r="I79" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N79" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O79" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P79" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q79" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R79" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S79" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T79" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U79" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="V79" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W79" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X79" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y79" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z79" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA79" s="29"/>
+    </row>
+    <row r="80" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J79" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="K79" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L79" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M79" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N79" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O79" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P79" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q79" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R79" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S79" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T79" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U79" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V79" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W79" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X79" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y79" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z79" s="24" t="s">
+      <c r="B80" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AA79" s="29"/>
-    </row>
-    <row r="80" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C80" s="24" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D80" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>74</v>
@@ -8123,79 +8097,79 @@
         <v>82</v>
       </c>
       <c r="I80" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M80" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N80" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O80" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P80" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q80" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R80" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S80" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T80" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U80" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="V80" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="W80" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="X80" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y80" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z80" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA80" s="29"/>
+    </row>
+    <row r="81" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J80" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L80" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M80" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N80" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O80" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P80" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q80" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R80" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S80" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T80" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U80" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V80" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W80" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X80" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y80" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z80" s="24" t="s">
+      <c r="B81" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AA80" s="29"/>
-    </row>
-    <row r="81" spans="1:28" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C81" s="24" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D81" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>74</v>
@@ -8204,79 +8178,79 @@
         <v>82</v>
       </c>
       <c r="I81" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K81" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N81" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O81" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P81" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q81" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R81" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S81" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T81" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U81" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="V81" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W81" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X81" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y81" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z81" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA81" s="29"/>
+    </row>
+    <row r="82" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J81" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K81" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L81" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M81" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N81" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O81" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P81" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q81" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R81" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S81" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T81" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U81" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V81" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W81" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X81" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y81" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z81" s="24" t="s">
+      <c r="B82" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="AA81" s="29"/>
-    </row>
-    <row r="82" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C82" s="24" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="D82" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>74</v>
@@ -8285,10 +8259,10 @@
         <v>82</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K82" s="15" t="s">
         <v>155</v>
@@ -8324,40 +8298,40 @@
         <v>81</v>
       </c>
       <c r="V82" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="W82" s="19" t="s">
-        <v>156</v>
+        <v>81</v>
+      </c>
+      <c r="W82" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="X82" s="18" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="Y82" s="19" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="Z82" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AA82" s="29"/>
     </row>
     <row r="83" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B83" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>166</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>214</v>
       </c>
       <c r="D83" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>74</v>
@@ -8366,79 +8340,79 @@
         <v>82</v>
       </c>
       <c r="I83" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M83" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N83" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O83" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P83" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q83" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R83" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S83" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T83" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U83" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="V83" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W83" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X83" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y83" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z83" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA83" s="29"/>
+    </row>
+    <row r="84" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="J83" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="K83" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L83" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M83" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N83" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O83" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P83" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q83" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R83" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S83" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T83" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U83" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V83" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W83" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X83" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y83" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z83" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA83" s="29"/>
-    </row>
-    <row r="84" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>167</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="D84" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>74</v>
@@ -8447,10 +8421,10 @@
         <v>82</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K84" s="15" t="s">
         <v>155</v>
@@ -8502,24 +8476,24 @@
       </c>
       <c r="AA84" s="29"/>
     </row>
-    <row r="85" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="D85" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>74</v>
@@ -8528,79 +8502,79 @@
         <v>82</v>
       </c>
       <c r="I85" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K85" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L85" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M85" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N85" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O85" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P85" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q85" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R85" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S85" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T85" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U85" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="V85" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W85" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X85" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y85" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z85" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA85" s="29"/>
+    </row>
+    <row r="86" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J85" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="K85" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L85" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M85" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N85" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O85" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P85" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q85" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R85" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S85" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T85" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U85" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V85" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W85" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X85" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y85" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z85" s="24" t="s">
+      <c r="B86" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="AA85" s="29"/>
-    </row>
-    <row r="86" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B86" s="26" t="s">
+      <c r="C86" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>224</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>74</v>
@@ -8609,7 +8583,7 @@
         <v>82</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J86" s="14" t="s">
         <v>203</v>
@@ -8660,37 +8634,37 @@
         <v>81</v>
       </c>
       <c r="Z86" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AA86" s="29"/>
     </row>
     <row r="87" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>203</v>
@@ -8741,28 +8715,28 @@
         <v>81</v>
       </c>
       <c r="Z87" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA87" s="29"/>
     </row>
     <row r="88" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D88" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>74</v>
@@ -8771,160 +8745,156 @@
         <v>82</v>
       </c>
       <c r="I88" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M88" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N88" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O88" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P88" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q88" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R88" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S88" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T88" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U88" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="V88" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W88" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X88" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y88" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="29"/>
+    </row>
+    <row r="89" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J88" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K88" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L88" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M88" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N88" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O88" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P88" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q88" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R88" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S88" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T88" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U88" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V88" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W88" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X88" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y88" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z88" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA88" s="29"/>
-    </row>
-    <row r="89" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="B89" s="26" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I89" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K89" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M89" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N89" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O89" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P89" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q89" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R89" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S89" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T89" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U89" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="V89" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W89" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X89" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y89" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="1"/>
+    </row>
+    <row r="90" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J89" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K89" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L89" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M89" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N89" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O89" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P89" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q89" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R89" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S89" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T89" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U89" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V89" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W89" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X89" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y89" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z89" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA89" s="29"/>
-    </row>
-    <row r="90" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="B90" s="26" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G90" s="13" t="s">
         <v>74</v>
@@ -8933,10 +8903,10 @@
         <v>82</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K90" s="15" t="s">
         <v>155</v>
@@ -8977,33 +8947,29 @@
       <c r="W90" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="X90" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y90" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="Y90" s="29"/>
       <c r="Z90" s="30"/>
       <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
     </row>
     <row r="91" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D91" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>74</v>
@@ -9012,208 +8978,214 @@
         <v>82</v>
       </c>
       <c r="I91" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L91" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M91" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N91" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O91" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P91" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q91" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R91" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S91" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T91" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U91" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="V91" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W91" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X91" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y91" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+    </row>
+    <row r="92" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="J91" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="K91" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L91" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M91" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N91" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O91" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P91" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q91" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R91" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S91" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T91" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U91" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V91" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W91" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X91" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y91" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z91" s="30"/>
-      <c r="AA91" s="1"/>
-    </row>
-    <row r="92" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="B92" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B92" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G92" s="13" t="s">
+      <c r="F92" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="H92" s="13" t="s">
+      <c r="H92" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="I92" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="J92" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="K92" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L92" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M92" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N92" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O92" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P92" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q92" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R92" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S92" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T92" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U92" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V92" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W92" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y92" s="29"/>
+      <c r="I92" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J92" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K92" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L92" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="N92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="O92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="R92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="S92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="T92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="U92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="V92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="W92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="X92" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y92" s="37" t="s">
+        <v>81</v>
+      </c>
       <c r="Z92" s="30"/>
       <c r="AA92" s="29"/>
       <c r="AB92" s="29"/>
     </row>
-    <row r="93" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+    <row r="93" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B93" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G93" s="13" t="s">
+      <c r="F93" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G93" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="H93" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="I93" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="J93" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="K93" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L93" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M93" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N93" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O93" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P93" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q93" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R93" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S93" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T93" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U93" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="V93" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W93" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X93" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y93" s="17" t="s">
+      <c r="I93" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J93" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K93" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L93" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="N93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="O93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="R93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="S93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="T93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="U93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="V93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="W93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="X93" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y93" s="37" t="s">
         <v>81</v>
       </c>
       <c r="Z93" s="30"/>
@@ -9221,79 +9193,79 @@
       <c r="AB93" s="29"/>
     </row>
     <row r="94" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B94" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="C94" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="D94" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E94" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F94" s="34" t="s">
+      <c r="F94" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G94" s="35" t="s">
+      <c r="G94" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="H94" s="35" t="s">
+      <c r="H94" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="I94" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="J94" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="K94" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="L94" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="M94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="N94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="O94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="P94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="R94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="S94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="T94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="U94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="V94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="W94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="X94" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y94" s="38" t="s">
+      <c r="I94" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J94" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K94" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L94" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="N94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="O94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="R94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="S94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="T94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="U94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="V94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="W94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="X94" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y94" s="37" t="s">
         <v>81</v>
       </c>
       <c r="Z94" s="30"/>
@@ -9301,161 +9273,13 @@
       <c r="AB94" s="29"/>
     </row>
     <row r="95" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="B95" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="D95" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E95" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F95" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G95" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H95" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="I95" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="J95" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="K95" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="L95" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="M95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="N95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="O95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="P95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="R95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="S95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="T95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="U95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="V95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="W95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="X95" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y95" s="38" t="s">
-        <v>81</v>
-      </c>
+      <c r="Y95" s="29"/>
       <c r="Z95" s="30"/>
       <c r="AA95" s="29"/>
       <c r="AB95" s="29"/>
     </row>
     <row r="96" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="B96" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="D96" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E96" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F96" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H96" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="I96" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="J96" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="K96" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="L96" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="M96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="N96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="O96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="P96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="R96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="S96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="T96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="U96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="V96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="W96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="X96" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y96" s="38" t="s">
-        <v>81</v>
-      </c>
+      <c r="Y96" s="29"/>
       <c r="Z96" s="30"/>
       <c r="AA96" s="29"/>
       <c r="AB96" s="29"/>
@@ -9556,33 +9380,21 @@
       <c r="AA112" s="29"/>
       <c r="AB112" s="29"/>
     </row>
-    <row r="113" spans="25:28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y113" s="29"/>
-      <c r="Z113" s="30"/>
+      <c r="Z113" s="29"/>
       <c r="AA113" s="29"/>
       <c r="AB113" s="29"/>
     </row>
-    <row r="114" spans="25:28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="25:28" x14ac:dyDescent="0.25">
       <c r="Y114" s="29"/>
-      <c r="Z114" s="30"/>
+      <c r="Z114" s="29"/>
       <c r="AA114" s="29"/>
       <c r="AB114" s="29"/>
     </row>
-    <row r="115" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y115" s="29"/>
-      <c r="Z115" s="29"/>
-      <c r="AA115" s="29"/>
-      <c r="AB115" s="29"/>
-    </row>
-    <row r="116" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y116" s="29"/>
-      <c r="Z116" s="29"/>
-      <c r="AA116" s="29"/>
-      <c r="AB116" s="29"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Y91" xr:uid="{9EE4866E-E834-4DB8-9ED6-70561D41353B}"/>
-  <conditionalFormatting sqref="M63 O63 Q63 S63 U63 W63 Y63 B2:Y49 A2:A91">
+  <autoFilter ref="A1:Y89" xr:uid="{9EE4866E-E834-4DB8-9ED6-70561D41353B}"/>
+  <conditionalFormatting sqref="M63 O63 Q63 S63 U63 W63 Y63 B2:Y49 A2:A89">
     <cfRule type="containsText" dxfId="16" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
@@ -9657,14 +9469,14 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Z64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="A90">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A92)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A90)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="A91">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A93)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
